--- a/data/studies_2024-01-22_LSR3_H.xlsx
+++ b/data/studies_2024-01-22_LSR3_H.xlsx
@@ -788,8 +788,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Part A: Ralmitaront; placebo (monotherapy)_x000D_
-Part B: Ralmitaront low or high dose; placebo (add-on to current antipsychotics)</t>
+          <t>Part A: Ralmitaront; placebo (monotherapy); Part B: Ralmitaront low or high dose; placebo (add-on to current antipsychotics)</t>
         </is>
       </c>
       <c r="H6">
@@ -1011,8 +1010,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cohort 1: Ulotaront 10mg; Placebo_x000D_
-Cohort 2: Ulotaront 50mg; Placebo</t>
+          <t>Cohort 1: Ulotaront 10mg; Placebo; Cohort 2: Ulotaront 50mg; Placebo</t>
         </is>
       </c>
       <c r="H9">
@@ -1743,8 +1741,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo _x000D_
-Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
+          <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo; Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
         </is>
       </c>
       <c r="H18">

--- a/data/studies_2024-01-22_LSR3_H.xlsx
+++ b/data/studies_2024-01-22_LSR3_H.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DB-RCT; 8 weeks (up to 48 weeks extension) (phase II)</t>
+          <t>DB-RCT; 4 weeks (up to 48 weeks extension) (phase II)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/data/studies_2024-01-22_LSR3_H.xlsx
+++ b/data/studies_2024-01-22_LSR3_H.xlsx
@@ -559,12 +559,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>27.01.19</t>
+          <t>January 27 2019</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23.10.19</t>
+          <t>October 2023 2019</t>
         </is>
       </c>
       <c r="L3">
@@ -638,12 +638,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21.03.16</t>
+          <t>March 21 2016</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14.04.17</t>
+          <t>April 17 2014</t>
         </is>
       </c>
       <c r="L4">
@@ -717,12 +717,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>08.09.20</t>
+          <t>September 8 2020</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21.06.22</t>
+          <t>June 21 2022</t>
         </is>
       </c>
       <c r="L5">
@@ -801,12 +801,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>04.12.18</t>
+          <t>December 4 2018</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08.05.23</t>
+          <t>May 8 2023</t>
         </is>
       </c>
       <c r="L6">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21.11.16</t>
+          <t>November 21 2016</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>05.07.23</t>
+          <t>July 5 203</t>
         </is>
       </c>
       <c r="L10">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11.09.19</t>
+          <t>September 11 2019</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>08.06.23</t>
+          <t>June 8 2023</t>
         </is>
       </c>
       <c r="L11">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05.12.16</t>
+          <t>December 5 2016</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>31.07.18</t>
+          <t>July 21 2018</t>
         </is>
       </c>
       <c r="L12">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>41699</t>
+          <t>March 1  2014</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>42186</t>
+          <t>July 1 2015</t>
         </is>
       </c>
       <c r="L13">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>41334</t>
+          <t>August 1 2013</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>41730</t>
+          <t>March 1 2014</t>
         </is>
       </c>
       <c r="L14">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>05.06.14</t>
+          <t>June 5 2014</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>26.05.15</t>
+          <t>May 26 2015</t>
         </is>
       </c>
       <c r="L15">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>41334</t>
+          <t>October 1 2013</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>41974</t>
+          <t>December 1 2014</t>
         </is>
       </c>
       <c r="L16">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>30.09.19</t>
+          <t>September 30 2019</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08.09.23</t>
+          <t>September 08 2023</t>
         </is>
       </c>
       <c r="L17">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>31.03.20</t>
+          <t>March 31 2020</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07.08.20</t>
+          <t>August 7 2020</t>
         </is>
       </c>
       <c r="L18">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18.06.20</t>
+          <t>June 18 2020</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10.11.20</t>
+          <t>November 10 2020</t>
         </is>
       </c>
       <c r="L19">
@@ -1879,17 +1879,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NCT04115319 (2019)</t>
+          <t>NCT05402111 (2022)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A Study of the Long-term Safety and Tolerability of an Investigational Drug in People With Schizophrenia.</t>
+          <t>A Clinical Study That Will Assess How Food Moves Through the Stomach and Effects Blood Glucose Levels in Subjects With Schizophrenia Taking SEP-363856 or and Prior Antipsychotic (PA) Standard</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SEP361-304, NCT04115319 , EUCTR2019-002259-40</t>
+          <t>SEP361-124, NCT05402111 (2022)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DB-RCT; 52 weeks (phase 3)</t>
+          <t>Open RCT two-period crossover; single dose (phase 1)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1909,29 +1909,26 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ulotaront 50-100mg/d; Quetiapine XR 400-800mg/d</t>
+          <t>Ulotaront (25mg to 50mg); Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
         </is>
       </c>
       <c r="H20">
-        <v>475</v>
+        <v>36</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Efficacy (maintenance), tolerability</t>
+          <t>Pharmacokinetics, metabolic parameters</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15.11.19</t>
+          <t>June 13 2022</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>30.12.22</t>
-        </is>
-      </c>
-      <c r="L20">
-        <v>2022</v>
+          <t>July 13 2023</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1957,23 +1954,23 @@
         </is>
       </c>
       <c r="R20">
-        <v>475</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NCT05729373 (2023)</t>
+          <t>NCT04115319 (2019)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Meaure How Well SEP-363856 Works and How Safe it is in Adults With Generalized Anixety Disorder</t>
+          <t>A Study of the Long-term Safety and Tolerability of an Investigational Drug in People With Schizophrenia.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEP361-226, NCT05729373, EUCTR2022-502077-42-00</t>
+          <t>SEP361-304, NCT04115319 , EUCTR2019-002259-40</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1983,40 +1980,43 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DB-RCT; 8 weeks (phase 2/3)</t>
+          <t>DB-RCT; 52 weeks (phase 3)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with GAD (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ulotaront (50-75mg/d); Placebo</t>
+          <t>Ulotaront 50-100mg/d; Quetiapine XR 400-800mg/d</t>
         </is>
       </c>
       <c r="H21">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Efficacy (GAD), tolerability</t>
+          <t>Efficacy (maintenance), tolerability</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>08.03.23</t>
+          <t>November 15 2019</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08.02.25</t>
-        </is>
+          <t>December 30 2022</t>
+        </is>
+      </c>
+      <c r="L21">
+        <v>2022</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2029,32 +2029,32 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Other mental health conditions</t>
+          <t>Schizophrenia</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>acute</t>
+          <t>stable</t>
         </is>
       </c>
       <c r="R21">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NCT05593029 (2022)</t>
+          <t>NCT05729373 (2023)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A Trial of the Safety and Efficacy of SEP-363856 in the Treatment of Adults With Major Depressive Disorder</t>
+          <t>A Clinical Study That Will Meaure How Well SEP-363856 Works and How Safe it is in Adults With Generalized Anixety Disorder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>382-201-00001, NCT05593029</t>
+          <t>SEP361-226, NCT05729373, EUCTR2022-502077-42-00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2064,35 +2064,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DB-RCT; 14 weeks (phase 2/3)</t>
+          <t>DB-RCT; 8 weeks (phase 2/3)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with MDD (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with GAD (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ulotaront; Placebo (add-on to antidepressants)</t>
+          <t>Ulotaront (50-75mg/d); Placebo</t>
         </is>
       </c>
       <c r="H22">
-        <v>900</v>
+        <v>464</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Efficacy (MDD), tolerability</t>
+          <t>Efficacy (GAD), tolerability</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09.11.22</t>
+          <t>March 8 2023</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>45778</t>
+          <t>February 8 2025</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2119,23 +2119,23 @@
         </is>
       </c>
       <c r="R22">
-        <v>900</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NCT04825860 (2021)</t>
+          <t>NCT05593029 (2022)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A Clinical Trial to Evaluate the Efficacy and Safety of SEP-363856 in Acutely Psychotic People With Schizophrenia, Followed by an Open-label Extension Phase</t>
+          <t>A Trial of the Safety and Efficacy of SEP-363856 in the Treatment of Adults With Major Depressive Disorder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DA801201, NCT04825860, jRCT2071210003</t>
+          <t>382-201-00001, NCT05593029</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2145,35 +2145,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DB-RCT; 6 weeks (and open label extension) (phase 2/3)</t>
+          <t>DB-RCT; 14 weeks (phase 2/3)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with MDD (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
+          <t>Ulotaront; Placebo (add-on to antidepressants)</t>
         </is>
       </c>
       <c r="H23">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Efficacy (acute), tolerability</t>
+          <t>Efficacy (MDD), tolerability</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>29.03.21</t>
+          <t>November 9 2022</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>30.06.25</t>
+          <t>May 1 2025</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>Other mental health conditions</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2200,23 +2200,23 @@
         </is>
       </c>
       <c r="R23">
-        <v>480</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NCT05848700 (2023)</t>
+          <t>NCT04825860 (2021)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A Clinical Study to Learn if SEP-363856 Has Physical Dependence in Adults With Schizophrenia</t>
+          <t>A Clinical Trial to Evaluate the Efficacy and Safety of SEP-363856 in Acutely Psychotic People With Schizophrenia, Followed by an Open-label Extension Phase</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SEP361-121, NCT05848700</t>
+          <t>DA801201, NCT04825860, jRCT2071210003</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2226,35 +2226,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DB-RCT; 10 weeks (phase 1)</t>
+          <t>DB-RCT; 6 weeks (and open label extension) (phase 2/3)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
+          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ulotaront continuation; Ulotaront discontinuation (switch to placebo)</t>
+          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
         </is>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Physical dependence, pharmacokinetics</t>
+          <t>Efficacy (acute), tolerability</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>21.06.23</t>
+          <t>March 29 2021</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23.02.24</t>
+          <t>June 30 2025</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>acute</t>
         </is>
       </c>
       <c r="R24">
-        <v>60</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NCT05542264 (2022)</t>
+          <t>NCT05848700 (2023)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Assess the Effect of SEP-363856 or Prior Antipsychotic (PA) Standard of Care on Body-weight Associated Parameters in Subjects With Schizophrenia</t>
+          <t>A Clinical Study to Learn if SEP-363856 Has Physical Dependence in Adults With Schizophrenia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEP361-122, NCT05542264</t>
+          <t>SEP361-121, NCT05848700</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DB-RCT; 2 weeks (phase 1)</t>
+          <t>DB-RCT; 10 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ulotaront; Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
+          <t>Ulotaront continuation; Ulotaront discontinuation (switch to placebo)</t>
         </is>
       </c>
       <c r="H25">
@@ -2325,17 +2325,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Metabolic parameters</t>
+          <t>Physical dependence, pharmacokinetics</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>15.11.22</t>
+          <t>June 21 2023</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23.10.23</t>
+          <t>February 23 2024</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2368,17 +2368,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NCT05402111 (2022)</t>
+          <t>NCT05542264 (2022)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Assess How Food Moves Through the Stomach and Effects Blood Glucose Levels in Subjects With Schizophrenia Taking SEP-363856 or and Prior Antipsychotic (PA) Standard</t>
+          <t>A Clinical Study That Will Assess the Effect of SEP-363856 or Prior Antipsychotic (PA) Standard of Care on Body-weight Associated Parameters in Subjects With Schizophrenia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SEP361-124, NCT05402111 (2022)</t>
+          <t>SEP361-122, NCT05542264</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Open RCT two-period crossover; single dose (phase 1)</t>
+          <t>DB-RCT; 2 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2398,25 +2398,25 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ulotaront (25mg to 50mg); Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
+          <t>Ulotaront; Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
         </is>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pharmacokinetics, metabolic parameters</t>
+          <t>Metabolic parameters</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13.06.22</t>
+          <t>November 15 2022</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13.07.23</t>
+          <t>March 29 2024</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="R26">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/studies_2024-01-22_LSR3_H.xlsx
+++ b/data/studies_2024-01-22_LSR3_H.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,17 +842,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DA801002 (in Galluppi 2021)</t>
+          <t>*NCT04038957</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Population pharmacokinetic analysis of ulotaront in subjects with schizophrenia</t>
+          <t>A Clinical Study to Investigate the Effect of an Investigational Drug as an Added Medication to an Antipsychotic, in Adults With Schizophrenia, as Measured Positron Emission Tomography (PET) Imaging</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA801002</t>
+          <t>SEP361-118, NCT04038957, 2019-000568-65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -862,29 +862,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SB-RCT single ascending dose (phase I)</t>
+          <t>Open single-arm study; 2 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Men &gt;18 years</t>
+          <t>Men/women 18-65 year with schizophrenia (stable, DSM-5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ulotaront (25mg to 50mg); Placebo</t>
+          <t>Ulotaront 50-75mg/d (add-on to current antipsychotic treatment)</t>
         </is>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pharmacokinetics</t>
+          <t>F-DOPA PET</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>August 7, 2019</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>June 6, 2023</t>
         </is>
       </c>
       <c r="L7">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -893,35 +903,40 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>F-DOPA (narratively)</t>
         </is>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Healthy volunteers</t>
+          <t>Schizophrenia</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>stable</t>
         </is>
       </c>
       <c r="R7">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SEP361-101  (in Galluppi 2021 and Chen 2022)</t>
+          <t>DA801002 (in Galluppi 2021)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A sensitive LC-MS/MS method for simultaneous quantification of ulotaront and its N-desmethyl metabolite in human plasma and application to a clinical study</t>
+          <t>Population pharmacokinetic analysis of ulotaront in subjects with schizophrenia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEP361-101</t>
+          <t>DA801002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -931,7 +946,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SB-RCT; single ascending dose (phase I)</t>
+          <t>SB-RCT single ascending dose (phase I)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -941,11 +956,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ulotaront (5mg to 125mg); Placebo</t>
+          <t>Ulotaront (25mg to 50mg); Placebo</t>
         </is>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -974,23 +989,23 @@
         </is>
       </c>
       <c r="R8">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hopkins (2021)</t>
+          <t>SEP361-101  (in Galluppi 2021 and Chen 2022)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Effect of TAAR1/5-HT1A agonist SEP-363856 on REM sleep in humans</t>
+          <t>A sensitive LC-MS/MS method for simultaneous quantification of ulotaront and its N-desmethyl metabolite in human plasma and application to a clinical study</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEP361-103</t>
+          <t>SEP361-101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1000,25 +1015,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DB-RCT two-period crossover; single dose (phase I)</t>
+          <t>SB-RCT; single ascending dose (phase I)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Men 18-35 years</t>
+          <t>Men &gt;18 years</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cohort 1: Ulotaront 10mg; Placebo; Cohort 2: Ulotaront 50mg; Placebo</t>
+          <t>Ulotaront (5mg to 125mg); Placebo</t>
         </is>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sleep parameters, pharmacokinetics</t>
+          <t>Pharmacokinetics</t>
         </is>
       </c>
       <c r="L9">
@@ -1031,7 +1046,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Dropouts, side-effects</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O9">
@@ -1043,23 +1058,23 @@
         </is>
       </c>
       <c r="R9">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Isaacson (2023)</t>
+          <t>Hopkins (2021)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ulotaront, a Trace Amine-Associated Receptor 1/Serotonin 5-HT1A Agonist, in Patients With Parkinson Disease Psychosis: A Pilot Study.</t>
+          <t>Effect of TAAR1/5-HT1A agonist SEP-363856 on REM sleep in humans</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEP361-203, NCT02969369</t>
+          <t>SEP361-103</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1069,39 +1084,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DB-RCT; 6 weeks (with open label extension) (phase 2)</t>
+          <t>DB-RCT two-period crossover; single dose (phase I)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Men/women ≥55 years with Parkinson's disease psychosis (acute)</t>
+          <t>Men 18-35 years</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ulotaront 20-75mg/d; Placebo</t>
+          <t>Cohort 1: Ulotaront 10mg; Placebo; Cohort 2: Ulotaront 50mg; Placebo</t>
         </is>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Efficacy (acute), safety</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>November 21 2016</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>July 5 203</t>
+          <t>Sleep parameters, pharmacokinetics</t>
         </is>
       </c>
       <c r="L10">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1110,7 +1115,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Efficacy, dropouts, side-effects</t>
+          <t>Dropouts, side-effects</t>
         </is>
       </c>
       <c r="O10">
@@ -1118,32 +1123,27 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Parkinson's disease psychosis</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>acute</t>
+          <t>Healthy volunteers</t>
         </is>
       </c>
       <c r="R10">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NCT04072354 (2019)</t>
+          <t>Isaacson (2023)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A Clinical Trial to Study the Efficacy and Safety of an Investigational Drug in Acutely Psychotic People With Schizophrenia</t>
+          <t>Ulotaront, a Trace Amine-Associated Receptor 1/Serotonin 5-HT1A Agonist, in Patients With Parkinson Disease Psychosis: A Pilot Study.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEP361-301, NCT04072354, EUCTR2019-000470-36</t>
+          <t>SEP361-203, NCT02969369</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1153,35 +1153,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DB-RCT; 6 weeks (phase 3)</t>
+          <t>DB-RCT; 6 weeks (with open label extension) (phase 2)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Men/women 13-17 and 18-65 years with schizophrenia (acute, DSM-5)</t>
+          <t>Men/women ≥55 years with Parkinson's disease psychosis (acute)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
+          <t>Ulotaront 20-75mg/d; Placebo</t>
         </is>
       </c>
       <c r="H11">
-        <v>463</v>
+        <v>39</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Efficacy (acute), tolerability</t>
+          <t>Efficacy (acute), safety</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>September 11 2019</t>
+          <t>November 21 2016</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 8 2023</t>
+          <t>July 5 203</t>
         </is>
       </c>
       <c r="L11">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Efficacy, dropouts</t>
+          <t>Efficacy, dropouts, side-effects</t>
         </is>
       </c>
       <c r="O11">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>Parkinson's disease psychosis</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1211,23 +1211,23 @@
         </is>
       </c>
       <c r="R11">
-        <v>463</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Koblan (2020)</t>
+          <t>NCT04072354 (2019)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A Non–D2-Receptor-Binding Drug for the Treatment of Schizophrenia</t>
+          <t>A Clinical Trial to Study the Efficacy and Safety of an Investigational Drug in Acutely Psychotic People With Schizophrenia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEP361-201, NCT02969382, EUCTR2016-001555-41</t>
+          <t>SEP361-301, NCT04072354, EUCTR2019-000470-36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1237,21 +1237,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DB-RCT; 4 weeks (with open label extension) (phase 2)</t>
+          <t>DB-RCT; 6 weeks (phase 3)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Men/women 18-40 years with schizophrenia (acute, DSM-5)</t>
+          <t>Men/women 13-17 and 18-65 years with schizophrenia (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ulotaront (50-75mg/d); Placebo</t>
+          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
         </is>
       </c>
       <c r="H12">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1260,16 +1260,16 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>December 5 2016</t>
+          <t>September 11 2019</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>July 21 2018</t>
+          <t>June 8 2023</t>
         </is>
       </c>
       <c r="L12">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Efficacy, dropouts, side-effects</t>
+          <t>Efficacy, dropouts</t>
         </is>
       </c>
       <c r="O12">
@@ -1295,23 +1295,23 @@
         </is>
       </c>
       <c r="R12">
-        <v>245</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Perini (2023)</t>
+          <t>Koblan (2020)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Effects of ulotaront on brain circuits of reward, working memory, and emotion processing in healthy volunteers with high or low schizotypy</t>
+          <t>A Non–D2-Receptor-Binding Drug for the Treatment of Schizophrenia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEP361-104, NCT01972711</t>
+          <t>SEP361-201, NCT02969382, EUCTR2016-001555-41</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1321,39 +1321,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DB-RCT; single dose (phase 1)</t>
+          <t>DB-RCT; 4 weeks (with open label extension) (phase 2)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Men/women 18-45 years (high or low levels of schizotypy)</t>
+          <t>Men/women 18-40 years with schizophrenia (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ulotaront 50mg; Amisulpride 400mg; Placebo</t>
+          <t>Ulotaront (50-75mg/d); Placebo</t>
         </is>
       </c>
       <c r="H13">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>fMRI</t>
+          <t>Efficacy (acute), tolerability</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>March 1  2014</t>
+          <t>December 5 2016</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>July 1 2015</t>
+          <t>July 21 2018</t>
         </is>
       </c>
       <c r="L13">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Dropouts, side-effects</t>
+          <t>Efficacy, dropouts, side-effects</t>
         </is>
       </c>
       <c r="O13">
@@ -1370,27 +1370,32 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Healthy volunteers</t>
+          <t>Schizophrenia</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>acute</t>
         </is>
       </c>
       <c r="R13">
-        <v>105</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NCT01940159 (2013)</t>
+          <t>Perini (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A Study Assessing the Safety, Tolerability, and Pharmacokinetics of SEP-363856 in Male and Female Subjects With Schizophrenia</t>
+          <t>Effects of ulotaront on brain circuits of reward, working memory, and emotion processing in healthy volunteers with high or low schizotypy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEP361-105, NCT01940159</t>
+          <t>SEP361-104, NCT01972711</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1400,39 +1405,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SB-RCT; single ascending dose (phase 1)</t>
+          <t>DB-RCT; single dose (phase 1)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Men/women 18-50 years with schizophrenia (stable, DSM-IV-TR)</t>
+          <t>Men/women 18-45 years (high or low levels of schizotypy)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ulotaront (50mg to 150mg); Placebo</t>
+          <t>Ulotaront 50mg; Amisulpride 400mg; Placebo</t>
         </is>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tolerability, pharmacokinetics</t>
+          <t>fMRI</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>August 1 2013</t>
+          <t>March 1  2014</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>March 1 2014</t>
+          <t>July 1 2015</t>
         </is>
       </c>
       <c r="L14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1441,7 +1446,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dropouts, side-effects, fMRI (narratively)</t>
         </is>
       </c>
       <c r="O14">
@@ -1449,32 +1454,27 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>stable</t>
+          <t>Healthy volunteers</t>
         </is>
       </c>
       <c r="R14">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Szabo (2023)</t>
+          <t>NCT01940159 (2013)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A multicenter, double-blind, placebo-controlled, randomized, Phase 1b crossover trial comparing two doses of ulotaront with placebo in the treatment of narcolepsy-cataplexy.</t>
+          <t>A Study Assessing the Safety, Tolerability, and Pharmacokinetics of SEP-363856 in Male and Female Subjects With Schizophrenia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEP361-108 , NCT05015673</t>
+          <t>SEP361-105, NCT01940159</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1484,39 +1484,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DB-RCT three-period crossover; 2 weeks (phase 1)</t>
+          <t>SB-RCT; single ascending dose (phase 1)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Men/women 18-55 years with narcolepsy/cataplexy</t>
+          <t>Men/women 18-50 years with schizophrenia (stable, DSM-IV-TR)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ulotaront 25mg; Ulotaront 50mg; Placebo</t>
+          <t>Ulotaront (50mg to 150mg); Placebo</t>
         </is>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sleep parameters, pharmacokinetics, tolerability</t>
+          <t>Tolerability, pharmacokinetics</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>June 5 2014</t>
+          <t>August 1 2013</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>May 26 2015</t>
+          <t>March 1 2014</t>
         </is>
       </c>
       <c r="L15">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Dropouts, side-effects</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O15">
@@ -1533,27 +1533,32 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Other mental health conditions</t>
+          <t>Schizophrenia</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>stable</t>
         </is>
       </c>
       <c r="R15">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Koblan (2016)</t>
+          <t>Szabo (2023)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A phase 1 open label safety and tolerability study of SEP-363856, a novel NON-D2 mechanism of action molecule, in patients with schizophrenia</t>
+          <t>A multicenter, double-blind, placebo-controlled, randomized, Phase 1b crossover trial comparing two doses of ulotaront with placebo in the treatment of narcolepsy-cataplexy.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEP361-106, NCT01994473</t>
+          <t>SEP361-108 , NCT05015673</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1563,39 +1568,39 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SB-RCT; multiple ascending dose for 1 week (including open label extension) (phase 1)</t>
+          <t>DB-RCT three-period crossover; 2 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Men/women 18-55 years with schizophrenia (stable, DSM-IV-TR)</t>
+          <t>Men/women 18-55 years with narcolepsy/cataplexy</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ulotaront (10mg/d to 100mg/d); Placebo</t>
+          <t>Ulotaront 25mg; Ulotaront 50mg; Placebo</t>
         </is>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tolerability, pharmacokinetics</t>
+          <t>Sleep parameters, pharmacokinetics, tolerability</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>October 1 2013</t>
+          <t>June 5 2014</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>December 1 2014</t>
+          <t>May 26 2015</t>
         </is>
       </c>
       <c r="L16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1604,7 +1609,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dropouts, side-effects</t>
         </is>
       </c>
       <c r="O16">
@@ -1612,32 +1617,27 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>stable</t>
+          <t>Other mental health conditions</t>
         </is>
       </c>
       <c r="R16">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NCT04092686 (2019)</t>
+          <t>Koblan (2016)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A Clinical Trial That Will Study the Efficacy and Safety of an Investigational Drug in Acutely Psychotic People With Schizophrenia</t>
+          <t>A phase 1 open label safety and tolerability study of SEP-363856, a novel NON-D2 mechanism of action molecule, in patients with schizophrenia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEP361-302, NCT04092686, EUCTR2019-000697-37</t>
+          <t>SEP361-106, NCT01994473</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1647,39 +1647,39 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DB-RCT; 6 weeks (phase 3)</t>
+          <t>SB-RCT; multiple ascending dose for 1 week (including open label extension) (phase 1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
+          <t>Men/women 18-55 years with schizophrenia (stable, DSM-IV-TR)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ulotaront 75mg/d; Ulotaront 100mg/d; Placebo</t>
+          <t>Ulotaront (10mg/d to 100mg/d); Placebo</t>
         </is>
       </c>
       <c r="H17">
-        <v>462</v>
+        <v>48</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Efficacy (acute), tolerability</t>
+          <t>Tolerability, pharmacokinetics</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>September 30 2019</t>
+          <t>October 1 2013</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>September 08 2023</t>
+          <t>December 1 2014</t>
         </is>
       </c>
       <c r="L17">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Efficacy, dropouts</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O17">
@@ -1701,27 +1701,27 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>acute</t>
+          <t>stable</t>
         </is>
       </c>
       <c r="R17">
-        <v>462</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NCT04325737 (2020)</t>
+          <t>NCT04092686 (2019)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Study Assessing the Safety, Tolerability, and Pharmacokinetics of SEP-363856 in Japanese Male and Female Subjects With Schizophrenia</t>
+          <t>A Clinical Trial That Will Study the Efficacy and Safety of an Investigational Drug in Acutely Psychotic People With Schizophrenia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DA801102, NCT04325737, jRCT2080225100</t>
+          <t>SEP361-302, NCT04092686, EUCTR2019-000697-37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1731,39 +1731,39 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DB-RCT; 2 weeks (phase 1)</t>
+          <t>DB-RCT; 6 weeks (phase 3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
+          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo; Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
+          <t>Ulotaront 75mg/d; Ulotaront 100mg/d; Placebo</t>
         </is>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tolerability, pharmacokinetics</t>
+          <t>Efficacy (acute), tolerability</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>March 31 2020</t>
+          <t>September 30 2019</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>August 7 2020</t>
+          <t>September 08 2023</t>
         </is>
       </c>
       <c r="L18">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Efficacy, dropouts</t>
         </is>
       </c>
       <c r="O18">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>acute</t>
         </is>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tsukada (2023)</t>
+          <t>NCT04325737 (2020)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A randomized, single-dose, crossover study of the effects of ulotaront on electrocardiogram intervals in subjects with schizophrenia.</t>
+          <t>Study Assessing the Safety, Tolerability, and Pharmacokinetics of SEP-363856 in Japanese Male and Female Subjects With Schizophrenia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SEP361-114, NCT04369391</t>
+          <t>DA801102, NCT04325737, jRCT2080225100</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DB-RCT three-period crossover; single dose (phase 1)</t>
+          <t>DB-RCT; 2 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1825,25 +1825,25 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ulotaront 150mg; Placebo; Moxifloxacin 400mg (ineligible for the review)</t>
+          <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo; Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
         </is>
       </c>
       <c r="H19">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>QTc interval, tolerability, pharmacokinetics</t>
+          <t>Tolerability, pharmacokinetics</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>June 18 2020</t>
+          <t>March 31 2020</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>November 10 2020</t>
+          <t>August 7 2020</t>
         </is>
       </c>
       <c r="L19">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Dropouts, side-effects</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O19">
@@ -1873,23 +1873,23 @@
         </is>
       </c>
       <c r="R19">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NCT05402111 (2022)</t>
+          <t>Tsukada (2023)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Assess How Food Moves Through the Stomach and Effects Blood Glucose Levels in Subjects With Schizophrenia Taking SEP-363856 or and Prior Antipsychotic (PA) Standard</t>
+          <t>A randomized, single-dose, crossover study of the effects of ulotaront on electrocardiogram intervals in subjects with schizophrenia.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SEP361-124, NCT05402111 (2022)</t>
+          <t>SEP361-114, NCT04369391</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Open RCT two-period crossover; single dose (phase 1)</t>
+          <t>DB-RCT three-period crossover; single dose (phase 1)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1909,26 +1909,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ulotaront (25mg to 50mg); Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
+          <t>Ulotaront 150mg; Placebo; Moxifloxacin 400mg (ineligible for the review)</t>
         </is>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pharmacokinetics, metabolic parameters</t>
+          <t>QTc interval, tolerability, pharmacokinetics</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>June 13 2022</t>
+          <t>June 18 2020</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>July 13 2023</t>
-        </is>
+          <t>November 10 2020</t>
+        </is>
+      </c>
+      <c r="L20">
+        <v>2020</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1937,7 +1940,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dropouts, side-effects</t>
         </is>
       </c>
       <c r="O20">
@@ -1954,23 +1957,23 @@
         </is>
       </c>
       <c r="R20">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NCT04115319 (2019)</t>
+          <t>NCT05402111 (2022)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A Study of the Long-term Safety and Tolerability of an Investigational Drug in People With Schizophrenia.</t>
+          <t>A Clinical Study That Will Assess How Food Moves Through the Stomach and Effects Blood Glucose Levels in Subjects With Schizophrenia Taking SEP-363856 or and Prior Antipsychotic (PA) Standard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEP361-304, NCT04115319 , EUCTR2019-002259-40</t>
+          <t>SEP361-124, NCT05402111 (2022)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1980,7 +1983,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DB-RCT; 52 weeks (phase 3)</t>
+          <t>Open RCT two-period crossover; single dose (phase 1)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1990,29 +1993,26 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ulotaront 50-100mg/d; Quetiapine XR 400-800mg/d</t>
+          <t>Ulotaront (25mg to 50mg); Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
         </is>
       </c>
       <c r="H21">
-        <v>475</v>
+        <v>36</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Efficacy (maintenance), tolerability</t>
+          <t>Pharmacokinetics, metabolic parameters</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>November 15 2019</t>
+          <t>June 13 2022</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>December 30 2022</t>
-        </is>
-      </c>
-      <c r="L21">
-        <v>2022</v>
+          <t>July 13 2023</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2038,23 +2038,23 @@
         </is>
       </c>
       <c r="R21">
-        <v>475</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NCT05729373 (2023)</t>
+          <t>NCT04115319 (2019)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Meaure How Well SEP-363856 Works and How Safe it is in Adults With Generalized Anixety Disorder</t>
+          <t>A Study of the Long-term Safety and Tolerability of an Investigational Drug in People With Schizophrenia.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SEP361-226, NCT05729373, EUCTR2022-502077-42-00</t>
+          <t>SEP361-304, NCT04115319 , EUCTR2019-002259-40</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2064,40 +2064,43 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DB-RCT; 8 weeks (phase 2/3)</t>
+          <t>DB-RCT; 52 weeks (phase 3)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with GAD (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ulotaront (50-75mg/d); Placebo</t>
+          <t>Ulotaront 50-100mg/d; Quetiapine XR 400-800mg/d</t>
         </is>
       </c>
       <c r="H22">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Efficacy (GAD), tolerability</t>
+          <t>Efficacy (maintenance), tolerability</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>March 8 2023</t>
+          <t>November 15 2019</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>February 8 2025</t>
-        </is>
+          <t>December 30 2022</t>
+        </is>
+      </c>
+      <c r="L22">
+        <v>2022</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2110,32 +2113,32 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Other mental health conditions</t>
+          <t>Schizophrenia</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>acute</t>
+          <t>stable</t>
         </is>
       </c>
       <c r="R22">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NCT05593029 (2022)</t>
+          <t>NCT05729373 (2023)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A Trial of the Safety and Efficacy of SEP-363856 in the Treatment of Adults With Major Depressive Disorder</t>
+          <t>A Clinical Study That Will Meaure How Well SEP-363856 Works and How Safe it is in Adults With Generalized Anixety Disorder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>382-201-00001, NCT05593029</t>
+          <t>SEP361-226, NCT05729373, EUCTR2022-502077-42-00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2145,35 +2148,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DB-RCT; 14 weeks (phase 2/3)</t>
+          <t>DB-RCT; 8 weeks (phase 2/3)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with MDD (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with GAD (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ulotaront; Placebo (add-on to antidepressants)</t>
+          <t>Ulotaront (50-75mg/d); Placebo</t>
         </is>
       </c>
       <c r="H23">
-        <v>900</v>
+        <v>464</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Efficacy (MDD), tolerability</t>
+          <t>Efficacy (GAD), tolerability</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>November 9 2022</t>
+          <t>March 8 2023</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>May 1 2025</t>
+          <t>February 8 2025</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2200,23 +2203,23 @@
         </is>
       </c>
       <c r="R23">
-        <v>900</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NCT04825860 (2021)</t>
+          <t>NCT05593029 (2022)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A Clinical Trial to Evaluate the Efficacy and Safety of SEP-363856 in Acutely Psychotic People With Schizophrenia, Followed by an Open-label Extension Phase</t>
+          <t>A Trial of the Safety and Efficacy of SEP-363856 in the Treatment of Adults With Major Depressive Disorder</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DA801201, NCT04825860, jRCT2071210003</t>
+          <t>382-201-00001, NCT05593029</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2226,35 +2229,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DB-RCT; 6 weeks (and open label extension) (phase 2/3)</t>
+          <t>DB-RCT; 14 weeks (phase 2/3)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
+          <t>Men/women 18-65 years with MDD (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
+          <t>Ulotaront; Placebo (add-on to antidepressants)</t>
         </is>
       </c>
       <c r="H24">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Efficacy (acute), tolerability</t>
+          <t>Efficacy (MDD), tolerability</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>March 29 2021</t>
+          <t>November 9 2022</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>June 30 2025</t>
+          <t>May 1 2025</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2272,7 +2275,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>Other mental health conditions</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2281,23 +2284,23 @@
         </is>
       </c>
       <c r="R24">
-        <v>480</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NCT05848700 (2023)</t>
+          <t>NCT04825860 (2021)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A Clinical Study to Learn if SEP-363856 Has Physical Dependence in Adults With Schizophrenia</t>
+          <t>A Clinical Trial to Evaluate the Efficacy and Safety of SEP-363856 in Acutely Psychotic People With Schizophrenia, Followed by an Open-label Extension Phase</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEP361-121, NCT05848700</t>
+          <t>DA801201, NCT04825860, jRCT2071210003</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2307,35 +2310,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DB-RCT; 10 weeks (phase 1)</t>
+          <t>DB-RCT; 6 weeks (and open label extension) (phase 2/3)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
+          <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ulotaront continuation; Ulotaront discontinuation (switch to placebo)</t>
+          <t>Ulotaront 50mg/d; Ulotaront 75mg/d; Placebo</t>
         </is>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Physical dependence, pharmacokinetics</t>
+          <t>Efficacy (acute), tolerability</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>June 21 2023</t>
+          <t>March 29 2021</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>February 23 2024</t>
+          <t>June 30 2025</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2358,27 +2361,27 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>acute</t>
         </is>
       </c>
       <c r="R25">
-        <v>60</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NCT05542264 (2022)</t>
+          <t>NCT05848700 (2023)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A Clinical Study That Will Assess the Effect of SEP-363856 or Prior Antipsychotic (PA) Standard of Care on Body-weight Associated Parameters in Subjects With Schizophrenia</t>
+          <t>A Clinical Study to Learn if SEP-363856 Has Physical Dependence in Adults With Schizophrenia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SEP361-122, NCT05542264</t>
+          <t>SEP361-121, NCT05848700</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DB-RCT; 2 weeks (phase 1)</t>
+          <t>DB-RCT; 10 weeks (phase 1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2398,7 +2401,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ulotaront; Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
+          <t>Ulotaront continuation; Ulotaront discontinuation (switch to placebo)</t>
         </is>
       </c>
       <c r="H26">
@@ -2406,17 +2409,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Metabolic parameters</t>
+          <t>Physical dependence, pharmacokinetics</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>November 15 2022</t>
+          <t>June 21 2023</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>March 29 2024</t>
+          <t>February 23 2024</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2443,6 +2446,87 @@
         </is>
       </c>
       <c r="R26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NCT05542264 (2022)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A Clinical Study That Will Assess the Effect of SEP-363856 or Prior Antipsychotic (PA) Standard of Care on Body-weight Associated Parameters in Subjects With Schizophrenia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SEP361-122, NCT05542264</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sunovion/Sumitomo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DB-RCT; 2 weeks (phase 1)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Ulotaront; Prior antipsychotics (risperidone, olanzapine, quetiapine, aripiprazole)</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Metabolic parameters</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>November 15 2022</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>March 29 2024</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ongoing</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Schizophrenia</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>stable</t>
+        </is>
+      </c>
+      <c r="R27">
         <v>60</v>
       </c>
     </row>
